--- a/tests/Headway_Geral_C_x_13M_SemMotobox_D4_0004.xlsx
+++ b/tests/Headway_Geral_C_x_13M_SemMotobox_D4_0004.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5495,6 +5495,2006 @@
         <v>1.935200000000009</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B127" t="n">
+        <v>47</v>
+      </c>
+      <c r="C127" t="n">
+        <v>14590</v>
+      </c>
+      <c r="D127" t="n">
+        <v>547</v>
+      </c>
+      <c r="E127" t="n">
+        <v>486.8202</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>2.8202</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>14641</v>
+      </c>
+      <c r="D128" t="n">
+        <v>502</v>
+      </c>
+      <c r="E128" t="n">
+        <v>488.5219</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>2</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1.701700000000017</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>14720</v>
+      </c>
+      <c r="D129" t="n">
+        <v>528</v>
+      </c>
+      <c r="E129" t="n">
+        <v>491.1578</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2</v>
+      </c>
+      <c r="K129" t="n">
+        <v>2</v>
+      </c>
+      <c r="L129" t="n">
+        <v>2.635899999999992</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2</v>
+      </c>
+      <c r="C130" t="n">
+        <v>14806</v>
+      </c>
+      <c r="D130" t="n">
+        <v>537</v>
+      </c>
+      <c r="E130" t="n">
+        <v>494.0274</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>4</v>
+      </c>
+      <c r="J130" t="n">
+        <v>3</v>
+      </c>
+      <c r="K130" t="n">
+        <v>3</v>
+      </c>
+      <c r="L130" t="n">
+        <v>2.869599999999991</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3</v>
+      </c>
+      <c r="C131" t="n">
+        <v>14919</v>
+      </c>
+      <c r="D131" t="n">
+        <v>540</v>
+      </c>
+      <c r="E131" t="n">
+        <v>497.7978</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>5</v>
+      </c>
+      <c r="J131" t="n">
+        <v>4</v>
+      </c>
+      <c r="K131" t="n">
+        <v>4</v>
+      </c>
+      <c r="L131" t="n">
+        <v>3.770399999999995</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B132" t="n">
+        <v>40</v>
+      </c>
+      <c r="C132" t="n">
+        <v>14941</v>
+      </c>
+      <c r="D132" t="n">
+        <v>559</v>
+      </c>
+      <c r="E132" t="n">
+        <v>498.5319</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>6</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.7341000000000122</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B133" t="n">
+        <v>39</v>
+      </c>
+      <c r="C133" t="n">
+        <v>14970</v>
+      </c>
+      <c r="D133" t="n">
+        <v>550</v>
+      </c>
+      <c r="E133" t="n">
+        <v>499.4995</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>7</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.9676000000000045</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4</v>
+      </c>
+      <c r="C134" t="n">
+        <v>15038</v>
+      </c>
+      <c r="D134" t="n">
+        <v>552</v>
+      </c>
+      <c r="E134" t="n">
+        <v>501.7684</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>8</v>
+      </c>
+      <c r="J134" t="n">
+        <v>5</v>
+      </c>
+      <c r="K134" t="n">
+        <v>5</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2.268899999999974</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>15105</v>
+      </c>
+      <c r="D135" t="n">
+        <v>578</v>
+      </c>
+      <c r="E135" t="n">
+        <v>504.004</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>9</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>6</v>
+      </c>
+      <c r="L135" t="n">
+        <v>2.235600000000034</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6</v>
+      </c>
+      <c r="C136" t="n">
+        <v>15161</v>
+      </c>
+      <c r="D136" t="n">
+        <v>590</v>
+      </c>
+      <c r="E136" t="n">
+        <v>505.8725</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>10</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>7</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1.868499999999983</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B137" t="n">
+        <v>7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>15221</v>
+      </c>
+      <c r="D137" t="n">
+        <v>595</v>
+      </c>
+      <c r="E137" t="n">
+        <v>507.8745</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>11</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>8</v>
+      </c>
+      <c r="L137" t="n">
+        <v>2.00200000000001</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B138" t="n">
+        <v>42</v>
+      </c>
+      <c r="C138" t="n">
+        <v>15246</v>
+      </c>
+      <c r="D138" t="n">
+        <v>608</v>
+      </c>
+      <c r="E138" t="n">
+        <v>508.7087</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>12</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.8342000000000098</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B139" t="n">
+        <v>41</v>
+      </c>
+      <c r="C139" t="n">
+        <v>15265</v>
+      </c>
+      <c r="D139" t="n">
+        <v>606</v>
+      </c>
+      <c r="E139" t="n">
+        <v>509.3427</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>13</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.6339999999999577</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B140" t="n">
+        <v>8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>15353</v>
+      </c>
+      <c r="D140" t="n">
+        <v>613</v>
+      </c>
+      <c r="E140" t="n">
+        <v>512.2789</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>14</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>9</v>
+      </c>
+      <c r="L140" t="n">
+        <v>2.936200000000042</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B141" t="n">
+        <v>9</v>
+      </c>
+      <c r="C141" t="n">
+        <v>15406</v>
+      </c>
+      <c r="D141" t="n">
+        <v>621</v>
+      </c>
+      <c r="E141" t="n">
+        <v>514.0474</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>15</v>
+      </c>
+      <c r="J141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>10</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1.768500000000017</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B142" t="n">
+        <v>10</v>
+      </c>
+      <c r="C142" t="n">
+        <v>15461</v>
+      </c>
+      <c r="D142" t="n">
+        <v>625</v>
+      </c>
+      <c r="E142" t="n">
+        <v>515.8825000000001</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>16</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>11</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1.835100000000011</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B143" t="n">
+        <v>49</v>
+      </c>
+      <c r="C143" t="n">
+        <v>14557</v>
+      </c>
+      <c r="D143" t="n">
+        <v>511</v>
+      </c>
+      <c r="E143" t="n">
+        <v>485.7191</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>2</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1.719100000000026</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B144" t="n">
+        <v>48</v>
+      </c>
+      <c r="C144" t="n">
+        <v>14594</v>
+      </c>
+      <c r="D144" t="n">
+        <v>515</v>
+      </c>
+      <c r="E144" t="n">
+        <v>486.9536</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1.234499999999969</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B145" t="n">
+        <v>11</v>
+      </c>
+      <c r="C145" t="n">
+        <v>14641</v>
+      </c>
+      <c r="D145" t="n">
+        <v>499</v>
+      </c>
+      <c r="E145" t="n">
+        <v>488.5219</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>2</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1.568300000000022</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B146" t="n">
+        <v>43</v>
+      </c>
+      <c r="C146" t="n">
+        <v>14692</v>
+      </c>
+      <c r="D146" t="n">
+        <v>527</v>
+      </c>
+      <c r="E146" t="n">
+        <v>490.2236</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>2</v>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+      <c r="I146" t="n">
+        <v>4</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1.70169999999996</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B147" t="n">
+        <v>12</v>
+      </c>
+      <c r="C147" t="n">
+        <v>14745</v>
+      </c>
+      <c r="D147" t="n">
+        <v>529</v>
+      </c>
+      <c r="E147" t="n">
+        <v>491.992</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>2</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+      <c r="I147" t="n">
+        <v>5</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1.768400000000042</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B148" t="n">
+        <v>44</v>
+      </c>
+      <c r="C148" t="n">
+        <v>14783</v>
+      </c>
+      <c r="D148" t="n">
+        <v>542</v>
+      </c>
+      <c r="E148" t="n">
+        <v>493.2599</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>2</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+      <c r="I148" t="n">
+        <v>6</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1.267899999999997</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B149" t="n">
+        <v>13</v>
+      </c>
+      <c r="C149" t="n">
+        <v>14841</v>
+      </c>
+      <c r="D149" t="n">
+        <v>535</v>
+      </c>
+      <c r="E149" t="n">
+        <v>495.1952</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>2</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+      <c r="I149" t="n">
+        <v>7</v>
+      </c>
+      <c r="J149" t="n">
+        <v>3</v>
+      </c>
+      <c r="K149" t="n">
+        <v>3</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1.935299999999984</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B150" t="n">
+        <v>14</v>
+      </c>
+      <c r="C150" t="n">
+        <v>14906</v>
+      </c>
+      <c r="D150" t="n">
+        <v>536</v>
+      </c>
+      <c r="E150" t="n">
+        <v>497.364</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>2</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+      <c r="I150" t="n">
+        <v>8</v>
+      </c>
+      <c r="J150" t="n">
+        <v>4</v>
+      </c>
+      <c r="K150" t="n">
+        <v>4</v>
+      </c>
+      <c r="L150" t="n">
+        <v>2.168799999999976</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B151" t="n">
+        <v>15</v>
+      </c>
+      <c r="C151" t="n">
+        <v>15001</v>
+      </c>
+      <c r="D151" t="n">
+        <v>538</v>
+      </c>
+      <c r="E151" t="n">
+        <v>500.5339</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+      <c r="I151" t="n">
+        <v>9</v>
+      </c>
+      <c r="J151" t="n">
+        <v>5</v>
+      </c>
+      <c r="K151" t="n">
+        <v>5</v>
+      </c>
+      <c r="L151" t="n">
+        <v>3.169900000000041</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B152" t="n">
+        <v>45</v>
+      </c>
+      <c r="C152" t="n">
+        <v>15034</v>
+      </c>
+      <c r="D152" t="n">
+        <v>541</v>
+      </c>
+      <c r="E152" t="n">
+        <v>501.635</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>2</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+      <c r="I152" t="n">
+        <v>10</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1.101099999999974</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B153" t="n">
+        <v>16</v>
+      </c>
+      <c r="C153" t="n">
+        <v>15084</v>
+      </c>
+      <c r="D153" t="n">
+        <v>585</v>
+      </c>
+      <c r="E153" t="n">
+        <v>503.3033</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>2</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+      <c r="I153" t="n">
+        <v>11</v>
+      </c>
+      <c r="J153" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>6</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1.668299999999988</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B154" t="n">
+        <v>17</v>
+      </c>
+      <c r="C154" t="n">
+        <v>15141</v>
+      </c>
+      <c r="D154" t="n">
+        <v>592</v>
+      </c>
+      <c r="E154" t="n">
+        <v>505.2052</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>2</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+      <c r="I154" t="n">
+        <v>12</v>
+      </c>
+      <c r="J154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>7</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1.901900000000012</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B155" t="n">
+        <v>46</v>
+      </c>
+      <c r="C155" t="n">
+        <v>15193</v>
+      </c>
+      <c r="D155" t="n">
+        <v>601</v>
+      </c>
+      <c r="E155" t="n">
+        <v>506.9403</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>2</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+      <c r="I155" t="n">
+        <v>13</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1.735099999999989</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B156" t="n">
+        <v>18</v>
+      </c>
+      <c r="C156" t="n">
+        <v>15234</v>
+      </c>
+      <c r="D156" t="n">
+        <v>600</v>
+      </c>
+      <c r="E156" t="n">
+        <v>508.3083</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>2</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+      <c r="I156" t="n">
+        <v>14</v>
+      </c>
+      <c r="J156" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>8</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1.367999999999995</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B157" t="n">
+        <v>19</v>
+      </c>
+      <c r="C157" t="n">
+        <v>15296</v>
+      </c>
+      <c r="D157" t="n">
+        <v>609</v>
+      </c>
+      <c r="E157" t="n">
+        <v>510.377</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>2</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+      <c r="I157" t="n">
+        <v>15</v>
+      </c>
+      <c r="J157" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>9</v>
+      </c>
+      <c r="L157" t="n">
+        <v>2.068700000000035</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B158" t="n">
+        <v>20</v>
+      </c>
+      <c r="C158" t="n">
+        <v>15361</v>
+      </c>
+      <c r="D158" t="n">
+        <v>617</v>
+      </c>
+      <c r="E158" t="n">
+        <v>512.5459</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>2</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+      <c r="I158" t="n">
+        <v>16</v>
+      </c>
+      <c r="J158" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>10</v>
+      </c>
+      <c r="L158" t="n">
+        <v>2.168899999999951</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B159" t="n">
+        <v>21</v>
+      </c>
+      <c r="C159" t="n">
+        <v>15420</v>
+      </c>
+      <c r="D159" t="n">
+        <v>624</v>
+      </c>
+      <c r="E159" t="n">
+        <v>514.5145</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>2</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
+      <c r="I159" t="n">
+        <v>17</v>
+      </c>
+      <c r="J159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>11</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1.968600000000038</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B160" t="n">
+        <v>22</v>
+      </c>
+      <c r="C160" t="n">
+        <v>15501</v>
+      </c>
+      <c r="D160" t="n">
+        <v>629</v>
+      </c>
+      <c r="E160" t="n">
+        <v>517.2172</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>2</v>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+      <c r="I160" t="n">
+        <v>18</v>
+      </c>
+      <c r="J160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K160" t="n">
+        <v>12</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2.70270000000005</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B161" t="n">
+        <v>23</v>
+      </c>
+      <c r="C161" t="n">
+        <v>15603</v>
+      </c>
+      <c r="D161" t="n">
+        <v>636</v>
+      </c>
+      <c r="E161" t="n">
+        <v>520.6206</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>2</v>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+      <c r="I161" t="n">
+        <v>19</v>
+      </c>
+      <c r="J161" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K161" t="n">
+        <v>13</v>
+      </c>
+      <c r="L161" t="n">
+        <v>3.40339999999992</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B162" t="n">
+        <v>24</v>
+      </c>
+      <c r="C162" t="n">
+        <v>15685</v>
+      </c>
+      <c r="D162" t="n">
+        <v>641</v>
+      </c>
+      <c r="E162" t="n">
+        <v>523.3567</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>2</v>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+      <c r="I162" t="n">
+        <v>20</v>
+      </c>
+      <c r="J162" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K162" t="n">
+        <v>14</v>
+      </c>
+      <c r="L162" t="n">
+        <v>2.736100000000079</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B163" t="n">
+        <v>25</v>
+      </c>
+      <c r="C163" t="n">
+        <v>15752</v>
+      </c>
+      <c r="D163" t="n">
+        <v>645</v>
+      </c>
+      <c r="E163" t="n">
+        <v>525.5923</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>2</v>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+      <c r="I163" t="n">
+        <v>21</v>
+      </c>
+      <c r="J163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>15</v>
+      </c>
+      <c r="L163" t="n">
+        <v>2.235599999999977</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B164" t="n">
+        <v>26</v>
+      </c>
+      <c r="C164" t="n">
+        <v>15608</v>
+      </c>
+      <c r="D164" t="n">
+        <v>637</v>
+      </c>
+      <c r="E164" t="n">
+        <v>520.7875</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>36.78750000000002</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B165" t="n">
+        <v>27</v>
+      </c>
+      <c r="C165" t="n">
+        <v>15656</v>
+      </c>
+      <c r="D165" t="n">
+        <v>640</v>
+      </c>
+      <c r="E165" t="n">
+        <v>522.3891</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Van</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2</v>
+      </c>
+      <c r="J165" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K165" t="n">
+        <v>2</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1.601599999999962</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B166" t="n">
+        <v>28</v>
+      </c>
+      <c r="C166" t="n">
+        <v>15718</v>
+      </c>
+      <c r="D166" t="n">
+        <v>644</v>
+      </c>
+      <c r="E166" t="n">
+        <v>524.4578</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
+      <c r="I166" t="n">
+        <v>3</v>
+      </c>
+      <c r="J166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K166" t="n">
+        <v>3</v>
+      </c>
+      <c r="L166" t="n">
+        <v>2.068700000000035</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B167" t="n">
+        <v>29</v>
+      </c>
+      <c r="C167" t="n">
+        <v>15807</v>
+      </c>
+      <c r="D167" t="n">
+        <v>648</v>
+      </c>
+      <c r="E167" t="n">
+        <v>527.4274</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+      <c r="I167" t="n">
+        <v>4</v>
+      </c>
+      <c r="J167" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>4</v>
+      </c>
+      <c r="L167" t="n">
+        <v>2.969600000000014</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B168" t="n">
+        <v>30</v>
+      </c>
+      <c r="C168" t="n">
+        <v>15865</v>
+      </c>
+      <c r="D168" t="n">
+        <v>653</v>
+      </c>
+      <c r="E168" t="n">
+        <v>529.3627</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+      <c r="I168" t="n">
+        <v>5</v>
+      </c>
+      <c r="J168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K168" t="n">
+        <v>5</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1.935299999999984</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B169" t="n">
+        <v>31</v>
+      </c>
+      <c r="C169" t="n">
+        <v>15949</v>
+      </c>
+      <c r="D169" t="n">
+        <v>656</v>
+      </c>
+      <c r="E169" t="n">
+        <v>532.1655</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>2</v>
+      </c>
+      <c r="H169" t="n">
+        <v>4</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>48.16549999999995</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B170" t="n">
+        <v>32</v>
+      </c>
+      <c r="C170" t="n">
+        <v>16028</v>
+      </c>
+      <c r="D170" t="n">
+        <v>659</v>
+      </c>
+      <c r="E170" t="n">
+        <v>534.8015</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>2</v>
+      </c>
+      <c r="H170" t="n">
+        <v>4</v>
+      </c>
+      <c r="I170" t="n">
+        <v>2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>2</v>
+      </c>
+      <c r="L170" t="n">
+        <v>2.636000000000081</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B171" t="n">
+        <v>33</v>
+      </c>
+      <c r="C171" t="n">
+        <v>16103</v>
+      </c>
+      <c r="D171" t="n">
+        <v>666</v>
+      </c>
+      <c r="E171" t="n">
+        <v>537.304</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>2</v>
+      </c>
+      <c r="H171" t="n">
+        <v>4</v>
+      </c>
+      <c r="I171" t="n">
+        <v>3</v>
+      </c>
+      <c r="J171" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>3</v>
+      </c>
+      <c r="L171" t="n">
+        <v>2.502499999999941</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B172" t="n">
+        <v>34</v>
+      </c>
+      <c r="C172" t="n">
+        <v>16157</v>
+      </c>
+      <c r="D172" t="n">
+        <v>674</v>
+      </c>
+      <c r="E172" t="n">
+        <v>539.1058</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>2</v>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+      <c r="I172" t="n">
+        <v>4</v>
+      </c>
+      <c r="J172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>4</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1.801800000000071</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B173" t="n">
+        <v>35</v>
+      </c>
+      <c r="C173" t="n">
+        <v>16228</v>
+      </c>
+      <c r="D173" t="n">
+        <v>681</v>
+      </c>
+      <c r="E173" t="n">
+        <v>541.4748</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>2</v>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+      <c r="I173" t="n">
+        <v>5</v>
+      </c>
+      <c r="J173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>5</v>
+      </c>
+      <c r="L173" t="n">
+        <v>2.368999999999915</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B174" t="n">
+        <v>36</v>
+      </c>
+      <c r="C174" t="n">
+        <v>16286</v>
+      </c>
+      <c r="D174" t="n">
+        <v>684</v>
+      </c>
+      <c r="E174" t="n">
+        <v>543.4101000000001</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>2</v>
+      </c>
+      <c r="H174" t="n">
+        <v>4</v>
+      </c>
+      <c r="I174" t="n">
+        <v>6</v>
+      </c>
+      <c r="J174" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K174" t="n">
+        <v>6</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1.935300000000097</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B175" t="n">
+        <v>37</v>
+      </c>
+      <c r="C175" t="n">
+        <v>16029</v>
+      </c>
+      <c r="D175" t="n">
+        <v>662</v>
+      </c>
+      <c r="E175" t="n">
+        <v>534.8348</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>50.83479999999997</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>14520</v>
+      </c>
+      <c r="B176" t="n">
+        <v>38</v>
+      </c>
+      <c r="C176" t="n">
+        <v>16216</v>
+      </c>
+      <c r="D176" t="n">
+        <v>679</v>
+      </c>
+      <c r="E176" t="n">
+        <v>541.0744</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>57.07439999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
